--- a/docs/pages/tools/item_table_maker/excel/item.xlsx
+++ b/docs/pages/tools/item_table_maker/excel/item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyle\Desktop\git_repository\PSNOVA\docs\pages\tools\item_table_maker\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07E5CE0-DF3D-465C-9266-042D0C76B816}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025BF2E3-9DD8-43C9-9C11-B4093BF64EFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>レアリティ</t>
   </si>
@@ -171,19 +171,19 @@
     <t>自分と近くにいる仲間にデバンド効果</t>
   </si>
   <si>
-    <t>リングジェネレーター</t>
-  </si>
-  <si>
-    <t>使い捨ての簡易式ヘイロウ。装備を</t>
-  </si>
-  <si>
-    <t>変更せずにアイテムとして使用できる。</t>
-  </si>
-  <si>
-    <t>足場【リングフィールド】を作成する。</t>
-  </si>
-  <si>
-    <t>ヘイロウの足場作成GA効果</t>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>体験版では未登場</t>
+  </si>
+  <si>
+    <t>EXPブースト+100%</t>
+  </si>
+  <si>
+    <t>クエスト中に敵撃破で獲得した経験値が2倍になる シングルプレイのクエスト出発後に使用でき、30分経過かクエスト終了で効果が切れる。</t>
+  </si>
+  <si>
+    <t>マルチプレイでは使用不可。DLC受け取りしたはずのEXPブーストのどれかをDLしていない状態だと全てのブーストアイテムが使用不可になる。 DLしなおすことで使用可能。</t>
   </si>
 </sst>
 </file>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -524,7 +524,7 @@
     <col min="11" max="11" width="38.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -543,8 +543,11 @@
       <c r="F1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -564,12 +567,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="D3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -589,12 +592,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="D5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -614,12 +617,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="D7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -639,17 +642,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="D9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="D10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -669,17 +672,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="D12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="D13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -699,7 +702,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="D15" t="s">
         <v>35</v>
       </c>
@@ -707,7 +710,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="D16" t="s">
         <v>36</v>
       </c>
@@ -715,7 +718,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -735,17 +738,20 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="D18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="D19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -765,44 +771,28 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="D21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="D22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C23">
-        <v>20</v>
-      </c>
-      <c r="D23" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="E23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" t="s">
         <v>52</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="D24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="D25" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
